--- a/tests/Типы источников/р-50/расчет для турбины типа р.xlsx
+++ b/tests/Типы источников/р-50/расчет для турбины типа р.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="р-50-функция" sheetId="1" r:id="rId1"/>
+    <sheet name="р-50" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -144,6 +144,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>475688</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="276225"/>
+          <a:ext cx="4495238" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -410,10 +448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
